--- a/资产负债表/688658.xlsx
+++ b/资产负债表/688658.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -784,54 +784,52 @@
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>2020-12-04 00:00:00</t>
+          <t>2020-12-18 00:00:00</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2017-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3504405939.67</v>
+        <v>3138321859.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1119675751.35</v>
+        <v>1249765848.17</v>
       </c>
       <c r="Q2" t="n">
-        <v>792363842.2</v>
+        <v>244120322.42</v>
       </c>
       <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>326835267.92</v>
+        <v>465713337.53</v>
       </c>
       <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>498338945.82</v>
+        <v>664743052.6799999</v>
       </c>
       <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>2792547347.64</v>
+        <v>1881273163.17</v>
       </c>
       <c r="X2" t="n">
-        <v>842473212.13</v>
+        <v>526469615.41</v>
       </c>
       <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="n">
-        <v>54973231.58</v>
-      </c>
+      <c r="Z2" t="inlineStr"/>
       <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>711858592.03</v>
+        <v>1257048696.22</v>
       </c>
       <c r="AC2" t="inlineStr"/>
       <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>77.2401373134</v>
+        <v>88.5481090016</v>
       </c>
       <c r="AG2" t="n">
-        <v>79.68675420930001</v>
+        <v>59.9451951539</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688658.xlsx
+++ b/资产负债表/688658.xlsx
@@ -769,7 +769,7 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>002</t>
+          <t>001</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
@@ -789,47 +789,65 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2020-06-30 00:00:00</t>
+          <t>2019-12-31 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3138321859.39</v>
+        <v>3467225154.74</v>
       </c>
       <c r="P2" t="n">
-        <v>1249765848.17</v>
+        <v>1242555048.92</v>
       </c>
       <c r="Q2" t="n">
-        <v>244120322.42</v>
-      </c>
-      <c r="R2" t="inlineStr"/>
+        <v>394748388.05</v>
+      </c>
+      <c r="R2" t="n">
+        <v>30.8705338516</v>
+      </c>
       <c r="S2" t="n">
-        <v>465713337.53</v>
-      </c>
-      <c r="T2" t="inlineStr"/>
+        <v>716983053.21</v>
+      </c>
+      <c r="T2" t="n">
+        <v>11.2072329463</v>
+      </c>
       <c r="U2" t="n">
-        <v>664743052.6799999</v>
-      </c>
-      <c r="V2" t="inlineStr"/>
+        <v>556680049.79</v>
+      </c>
+      <c r="V2" t="n">
+        <v>-20.4803009338</v>
+      </c>
       <c r="W2" t="n">
-        <v>1881273163.17</v>
+        <v>2342474094.76</v>
       </c>
       <c r="X2" t="n">
-        <v>526469615.41</v>
-      </c>
-      <c r="Y2" t="inlineStr"/>
-      <c r="Z2" t="inlineStr"/>
-      <c r="AA2" t="inlineStr"/>
+        <v>590706181.27</v>
+      </c>
+      <c r="Y2" t="n">
+        <v>-22.6467093592</v>
+      </c>
+      <c r="Z2" t="n">
+        <v>41475747.36</v>
+      </c>
+      <c r="AA2" t="n">
+        <v>-23.7585231332</v>
+      </c>
       <c r="AB2" t="n">
-        <v>1257048696.22</v>
-      </c>
-      <c r="AC2" t="inlineStr"/>
-      <c r="AD2" t="inlineStr"/>
-      <c r="AE2" t="inlineStr"/>
+        <v>1124751059.98</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>33.4608276186</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>1.429294683</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>-9.051648258</v>
+      </c>
       <c r="AF2" t="n">
-        <v>88.5481090016</v>
+        <v>85.39045962989999</v>
       </c>
       <c r="AG2" t="n">
-        <v>59.9451951539</v>
+        <v>67.56048396680001</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>

--- a/资产负债表/688658.xlsx
+++ b/资产负债表/688658.xlsx
@@ -769,14 +769,14 @@
       </c>
       <c r="J2" t="inlineStr">
         <is>
+          <t>002</t>
+        </is>
+      </c>
+      <c r="K2" t="inlineStr">
+        <is>
           <t>001</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>001</t>
-        </is>
-      </c>
       <c r="L2" t="inlineStr">
         <is>
           <t>2</t>
@@ -789,65 +789,47 @@
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2019-12-31 00:00:00</t>
+          <t>2020-06-30 00:00:00</t>
         </is>
       </c>
       <c r="O2" t="n">
-        <v>3467225154.74</v>
+        <v>3138321859.39</v>
       </c>
       <c r="P2" t="n">
-        <v>1242555048.92</v>
+        <v>1249765848.17</v>
       </c>
       <c r="Q2" t="n">
-        <v>394748388.05</v>
-      </c>
-      <c r="R2" t="n">
-        <v>30.8705338516</v>
-      </c>
+        <v>244120322.42</v>
+      </c>
+      <c r="R2" t="inlineStr"/>
       <c r="S2" t="n">
-        <v>716983053.21</v>
-      </c>
-      <c r="T2" t="n">
-        <v>11.2072329463</v>
-      </c>
+        <v>465713337.53</v>
+      </c>
+      <c r="T2" t="inlineStr"/>
       <c r="U2" t="n">
-        <v>556680049.79</v>
-      </c>
-      <c r="V2" t="n">
-        <v>-20.4803009338</v>
-      </c>
+        <v>664743052.6799999</v>
+      </c>
+      <c r="V2" t="inlineStr"/>
       <c r="W2" t="n">
-        <v>2342474094.76</v>
+        <v>1881273163.17</v>
       </c>
       <c r="X2" t="n">
-        <v>590706181.27</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>-22.6467093592</v>
-      </c>
-      <c r="Z2" t="n">
-        <v>41475747.36</v>
-      </c>
-      <c r="AA2" t="n">
-        <v>-23.7585231332</v>
-      </c>
+        <v>526469615.41</v>
+      </c>
+      <c r="Y2" t="inlineStr"/>
+      <c r="Z2" t="inlineStr"/>
+      <c r="AA2" t="inlineStr"/>
       <c r="AB2" t="n">
-        <v>1124751059.98</v>
-      </c>
-      <c r="AC2" t="n">
-        <v>33.4608276186</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1.429294683</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>-9.051648258</v>
-      </c>
+        <v>1257048696.22</v>
+      </c>
+      <c r="AC2" t="inlineStr"/>
+      <c r="AD2" t="inlineStr"/>
+      <c r="AE2" t="inlineStr"/>
       <c r="AF2" t="n">
-        <v>85.39045962989999</v>
+        <v>88.5481090016</v>
       </c>
       <c r="AG2" t="n">
-        <v>67.56048396680001</v>
+        <v>59.9451951539</v>
       </c>
       <c r="AH2" t="inlineStr"/>
       <c r="AI2" t="inlineStr"/>
